--- a/Fig6_ResRateTimeSeries/SummerBaselineTieredRate.xlsx
+++ b/Fig6_ResRateTimeSeries/SummerBaselineTieredRate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rayan/Developer/CCAResearch/ConsolidatedPrimerData/CA_electricity_primer/Fig6_ResRateTimeSeries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646FF83D-19E5-284F-B062-D28F6DB640EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00B370-658E-B24E-AC90-15A45CAAE0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12760" windowHeight="17500" xr2:uid="{2ED96552-DAFC-C646-85A2-7A03F356D192}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" xr2:uid="{2ED96552-DAFC-C646-85A2-7A03F356D192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="23">
   <si>
     <t>Utility</t>
   </si>
@@ -74,18 +74,6 @@
     <t>CPA-SC</t>
   </si>
   <si>
-    <t>https://apps.openei.org/USURDB/rate/view/539f7506ec4f024411ed0f81#1__Basic_Information</t>
-  </si>
-  <si>
-    <t>https://apps.openei.org/USURDB/rate/view/565533075457a36b7b947b74#3__Energy</t>
-  </si>
-  <si>
-    <t>https://apps.openei.org/USURDB/rate/view/587e3b795457a33352316ce6#3__Energy</t>
-  </si>
-  <si>
-    <t>https://apps.openei.org/USURDB/rate/view/5a38163f5457a3af54d2dd7e</t>
-  </si>
-  <si>
     <t>https://rates.ladwp.com/UserFiles/Rate%20Summaries/Simplified%20Electric%20Rates/Simplified%20Electric%20Rates%202019-2021%20Oct%202021.pdf</t>
   </si>
   <si>
@@ -95,29 +83,35 @@
     <t>https://rates.ladwp.com/UserFiles/Rate%20Summaries/Simplified%20Electric%20Rates/Simplified%20Electric%20Rates%202019-2024%20Jan%202024.pdf</t>
   </si>
   <si>
-    <t>https://apps.openei.org/USURDB/rate/view/62c852e709e7863b6f399106#1__Basic_Information</t>
-  </si>
-  <si>
     <t>https://www.smud.org/en/Rate-Information/Residential-rates/Fixed-Rate</t>
   </si>
   <si>
-    <t>https://apps.openei.org/USURDB/rate/view/5dbc7d375457a3f842dc72bb</t>
-  </si>
-  <si>
-    <t>https://apps.openei.org/USURDB/rate/view/5c48887c5457a3641242792d</t>
-  </si>
-  <si>
-    <t>https://apps.openei.org/USURDB/rate/view/5a54f0555457a3674e423a7c</t>
-  </si>
-  <si>
-    <t>https://apps.openei.org/USURDB/rate/view/587e927e5457a31645316ce6#3__Energy</t>
+    <t>https://www.smud.org/-/media/Documents/Corporate/About-Us/Company-Information/Reports-and-Documents/GM-Reports/2015-GM-Rate-Report-Vol-1.ashx</t>
+  </si>
+  <si>
+    <t>https://www.smud.org/-/media/Documents/Corporate/About-Us/Company-Information/Reports-and-Documents/GM-Reports/2017-GM-Rate-Report-Vol-2.ashx</t>
+  </si>
+  <si>
+    <t>https://www.smud.org/-/media/Documents/Corporate/About-Us/Company-Information/Reports-and-Documents/Rates-Resolution-18-09-09.ashx</t>
+  </si>
+  <si>
+    <t>https://www.smud.org/-/media/Documents/Corporate/About-Us/Company-Information/Reports-and-Documents/2014-2021/2021/SMUD-General-Resolution-No-21-09-06.ashx</t>
+  </si>
+  <si>
+    <t>https://www.smud.org/-/media/Documents/Rate-Information/Rate-Archive/Resolution-No-190601.ashx</t>
+  </si>
+  <si>
+    <t>Email from SMUD</t>
+  </si>
+  <si>
+    <t>PDFs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +144,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -188,6 +188,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765326C-66C9-9B4E-AA2F-2EFB2434479E}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B81" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,7 +535,7 @@
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -558,8 +559,11 @@
       <c r="C2">
         <v>0.1143</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -569,8 +573,11 @@
       <c r="C3">
         <v>0.1143</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -580,8 +587,11 @@
       <c r="C4">
         <v>0.1143</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -591,8 +601,11 @@
       <c r="C5" s="3">
         <v>0.11559999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -602,8 +615,11 @@
       <c r="C6" s="3">
         <v>0.11536</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -613,8 +629,11 @@
       <c r="C7" s="3">
         <v>0.11877</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -624,8 +643,11 @@
       <c r="C8" s="3">
         <v>0.12232999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -635,8 +657,11 @@
       <c r="C9" s="3">
         <v>0.12845000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -646,8 +671,11 @@
       <c r="C10" s="3">
         <v>0.1323</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -657,8 +685,11 @@
       <c r="C11" s="3">
         <v>0.1323</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -668,8 +699,11 @@
       <c r="C12" s="3">
         <v>0.16170000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -679,8 +713,11 @@
       <c r="C13" s="3">
         <v>0.18151</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -690,8 +727,11 @@
       <c r="C14" s="3">
         <v>0.18276000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -701,8 +741,11 @@
       <c r="C15" s="3">
         <v>0.20077999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -712,8 +755,11 @@
       <c r="C16" s="3">
         <v>0.21182999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -723,8 +769,11 @@
       <c r="C17" s="3">
         <v>0.23580999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -734,8 +783,11 @@
       <c r="C18" s="3">
         <v>0.24986</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -745,8 +797,11 @@
       <c r="C19" s="3">
         <v>0.28239999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -756,8 +811,11 @@
       <c r="C20" s="3">
         <v>0.32549</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -767,8 +825,11 @@
       <c r="C21" s="3">
         <v>0.42009000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -779,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -790,7 +851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -801,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -812,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -823,7 +884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -834,7 +895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -845,7 +906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -856,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -867,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -878,7 +939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1078,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1086,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1039,8 +1100,11 @@
       <c r="D50">
         <v>4.2750000000000003E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1054,8 +1118,11 @@
       <c r="D51">
         <v>4.6780000000000002E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1069,8 +1136,11 @@
       <c r="D52" s="4">
         <v>5.8599999999999999E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1084,8 +1154,11 @@
       <c r="D53" s="4">
         <v>8.2210000000000005E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1099,8 +1172,11 @@
       <c r="D54" s="4">
         <v>8.8400000000000006E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1114,8 +1190,11 @@
       <c r="D55" s="4">
         <v>8.8749999999999996E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1129,8 +1208,11 @@
       <c r="D56" s="5">
         <v>9.461E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1144,16 +1226,22 @@
       <c r="D57" s="4">
         <v>9.5130000000000006E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58">
         <v>2021</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1167,8 +1255,11 @@
       <c r="D59" s="4">
         <v>0.16853000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1182,8 +1273,11 @@
       <c r="D60" s="4">
         <v>0.15697</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1197,8 +1291,11 @@
       <c r="D61" s="4">
         <v>0.18657000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1307,7 @@
       </c>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1319,7 @@
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -1504,13 +1601,6 @@
       <c r="B92">
         <v>2015</v>
       </c>
-      <c r="C92">
-        <f>0.1392+0.06137</f>
-        <v>0.20057</v>
-      </c>
-      <c r="E92" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -1519,13 +1609,6 @@
       <c r="B93">
         <v>2016</v>
       </c>
-      <c r="C93">
-        <f>0.14578+0.06137</f>
-        <v>0.20715</v>
-      </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -1534,13 +1617,6 @@
       <c r="B94">
         <v>2017</v>
       </c>
-      <c r="C94">
-        <f>0.14872+0.07395</f>
-        <v>0.22266999999999998</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -1549,13 +1625,6 @@
       <c r="B95">
         <v>2018</v>
       </c>
-      <c r="C95">
-        <f>0.150075+0.08183</f>
-        <v>0.23190499999999997</v>
-      </c>
-      <c r="E95" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -1568,7 +1637,7 @@
         <v>0.16825999999999999</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -1582,7 +1651,7 @@
         <v>0.17352000000000001</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -1596,7 +1665,7 @@
         <v>0.17649999999999999</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -1610,7 +1679,7 @@
         <v>0.19488</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -1624,7 +1693,7 @@
         <v>0.18856999999999999</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -1638,7 +1707,7 @@
         <v>0.20041999999999999</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1648,6 +1717,12 @@
       <c r="B102" s="2">
         <v>2005</v>
       </c>
+      <c r="C102" s="7">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -1656,6 +1731,12 @@
       <c r="B103">
         <v>2006</v>
       </c>
+      <c r="C103" s="7">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -1664,6 +1745,12 @@
       <c r="B104">
         <v>2007</v>
       </c>
+      <c r="C104" s="7">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -1672,6 +1759,13 @@
       <c r="B105">
         <v>2008</v>
       </c>
+      <c r="C105" s="7">
+        <f>0.0861+0.001</f>
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -1680,6 +1774,13 @@
       <c r="B106">
         <v>2009</v>
       </c>
+      <c r="C106" s="7">
+        <f>0.0886+0.002</f>
+        <v>9.06E-2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -1688,6 +1789,13 @@
       <c r="B107">
         <v>2010</v>
       </c>
+      <c r="C107" s="7">
+        <f>0.0946+0.002</f>
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -1696,6 +1804,13 @@
       <c r="B108">
         <v>2011</v>
       </c>
+      <c r="C108" s="7">
+        <f>0.0967+0.0009</f>
+        <v>9.7599999999999992E-2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -1704,6 +1819,13 @@
       <c r="B109">
         <v>2012</v>
       </c>
+      <c r="C109" s="7">
+        <f>0.0938+0.0009</f>
+        <v>9.4699999999999993E-2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -1712,6 +1834,13 @@
       <c r="B110">
         <v>2013</v>
       </c>
+      <c r="C110" s="7">
+        <f>0.0911+0.0013</f>
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -1720,6 +1849,13 @@
       <c r="B111">
         <v>2014</v>
       </c>
+      <c r="C111" s="7">
+        <f>0.0955+0.0013</f>
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -1728,6 +1864,13 @@
       <c r="B112">
         <v>2015</v>
       </c>
+      <c r="C112" s="7">
+        <f>0.0998+0.0015</f>
+        <v>0.1013</v>
+      </c>
+      <c r="E112" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -1736,6 +1879,12 @@
       <c r="B113">
         <v>2016</v>
       </c>
+      <c r="C113">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="E113" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -1745,11 +1894,10 @@
         <v>2017</v>
       </c>
       <c r="C114">
-        <f>0.0016+0.1128</f>
-        <v>0.1144</v>
+        <v>0.1128</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -1760,11 +1908,10 @@
         <v>2018</v>
       </c>
       <c r="C115">
-        <f>0.1032+0.0016</f>
-        <v>0.1048</v>
+        <v>0.1032</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -1778,7 +1925,7 @@
         <v>0.1032</v>
       </c>
       <c r="E116" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -1789,10 +1936,10 @@
         <v>2020</v>
       </c>
       <c r="C117">
-        <v>0.1032</v>
+        <v>0.1071</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -1803,10 +1950,10 @@
         <v>2021</v>
       </c>
       <c r="C118">
-        <v>0.1032</v>
+        <v>0.113</v>
       </c>
       <c r="E118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -1816,6 +1963,12 @@
       <c r="B119">
         <v>2022</v>
       </c>
+      <c r="C119">
+        <v>0.1153</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -1825,7 +1978,7 @@
         <v>2023</v>
       </c>
       <c r="C120">
-        <v>0.11700000000000001</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
@@ -1842,7 +1995,7 @@
         <v>0.1227</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">

--- a/Fig6_ResRateTimeSeries/SummerBaselineTieredRate.xlsx
+++ b/Fig6_ResRateTimeSeries/SummerBaselineTieredRate.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rayan/Developer/CCAResearch/ConsolidatedPrimerData/CA_electricity_primer/Fig6_ResRateTimeSeries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00B370-658E-B24E-AC90-15A45CAAE0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92888A27-3CD6-7F40-93F0-2D125F647408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" xr2:uid="{2ED96552-DAFC-C646-85A2-7A03F356D192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$102:$B$121</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$102:$C$121</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$102:$B$121</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$C$102:$C$121</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -204,6 +210,1007 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SMUD baseline tiered</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$B$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$102:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.9799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7599999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4699999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2399999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1071</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F0E-0440-BE2F-00AA7043B2D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2086129103"/>
+        <c:axId val="2085747727"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2086129103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085747727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2085747727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086129103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>26359</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>66136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464868</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>161506</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC8E746-25EC-DE6B-3A1D-510A98870846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765326C-66C9-9B4E-AA2F-2EFB2434479E}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2161,5 +3168,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>